--- a/templates/template-nps.xlsx
+++ b/templates/template-nps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pamat/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDCD486-59F3-F643-9E07-7C59190FC746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCF2D56-A0D7-AE47-9FEA-A79C0F954688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Q1</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -365,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -379,503 +376,103 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23">
         <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
